--- a/biology/Histoire de la zoologie et de la botanique/Eugène_Joseph_Bastard/Eugène_Joseph_Bastard.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Eugène_Joseph_Bastard/Eugène_Joseph_Bastard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Joseph_Bastard</t>
+          <t>Eugène_Joseph_Bastard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eugène Joseph Bastard (Saint-Lézin, 7 juillet 1865 - Fort-Dauphin, 30 novembre 1910[1]) est un naturaliste et explorateur français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eugène Joseph Bastard (Saint-Lézin, 7 juillet 1865 - Fort-Dauphin, 30 novembre 1910) est un naturaliste et explorateur français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Joseph_Bastard</t>
+          <t>Eugène_Joseph_Bastard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Enseignant, il travaille au Muséum d'histoire naturelle de Paris en 1895 où il classe les collections paléontologiques.
 Envoyé à Madagascar (1896) pour y rechercher des fossiles, il explore le sud-ouest de l'île alors encore peu pacifié et très mal connu des géologues. À partir de l'embouchure du Mangoka, il remonte le fleuve jusqu'à Vondrove. Il traverse ensuite une région montagneuse et atteint la baie de Saint-Augustin au Sud de Tuléar.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Joseph_Bastard</t>
+          <t>Eugène_Joseph_Bastard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Paroedura bastardi a été nommée en son honneur[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Paroedura bastardi a été nommée en son honneur,.
 </t>
         </is>
       </c>
